--- a/OnlineTravel/target/classes/testData/TestData.xlsx
+++ b/OnlineTravel/target/classes/testData/TestData.xlsx
@@ -403,7 +403,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/OnlineTravel/target/classes/testData/TestData.xlsx
+++ b/OnlineTravel/target/classes/testData/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
   <si>
     <t>Test Case Name</t>
   </si>
